--- a/3. Resultados/04. resultados DIC 16 al DIC 24/Olga Arango.xlsx
+++ b/3. Resultados/04. resultados DIC 16 al DIC 24/Olga Arango.xlsx
@@ -212,7 +212,7 @@
     <t xml:space="preserve">Descuento - Anticipo</t>
   </si>
   <si>
-    <t xml:space="preserve">30/12/2024</t>
+    <t xml:space="preserve">10/01/2025</t>
   </si>
   <si>
     <t xml:space="preserve">Ajuste - Maria Lucia Mogollon (Mal Facturado)</t>
